--- a/input_csv/05_Mainboards/artikel.xlsx
+++ b/input_csv/05_Mainboards/artikel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\05_Mainboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37953348-5D39-4205-8ECE-B49EB7402E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A249B3-99D8-40B9-932E-10AA137F4ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="0" windowWidth="21600" windowHeight="14010" xr2:uid="{717D53AB-BAAC-44F7-A093-03574B687F96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{717D53AB-BAAC-44F7-A093-03574B687F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainboards" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,68 +31,32 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>MSI B850 Gaming Plus Wifi PZ AM5</t>
+    <t>Gigabyte B650 AORUS ELITE AX ICE</t>
   </si>
   <si>
-    <t>4,71E+12</t>
+    <t>Gigabyte B650M Gaming Plus Wifi</t>
   </si>
   <si>
-    <t>MSI PRO Z890-S WIFI PZ DDR5 - LGA1851</t>
+    <t>Gigabyte B850 AORUS ELITE WIFI7 ICE</t>
   </si>
   <si>
-    <t>ASUS PRIME B850-Plus WIFI</t>
+    <t>Gigabyte B850M Gaming X WIFI6E</t>
   </si>
   <si>
-    <t>ASUS PRIME X870-P WIFI - AM5 - DDR5</t>
+    <t>MSI MAG B850 TOMAHAWK MAX WIFI</t>
   </si>
   <si>
-    <t>Asus ROG STRIX B850-A Gaming WIFI</t>
+    <t>MSI MAG X870E TOMAHAWK WIFI</t>
   </si>
   <si>
-    <t>MSI A520M-A PRO - AM4</t>
-  </si>
-  <si>
-    <t>4,72E+12</t>
-  </si>
-  <si>
-    <t>MSI MAG X870 TOMAHAWK WIFI - AM5 - DDR5</t>
-  </si>
-  <si>
-    <t>Gigabyte Z790 AORUS ELITE AX DDR5 - LGA1700</t>
-  </si>
-  <si>
-    <t>Gigabyte B650 EAGLE AX - AM5</t>
-  </si>
-  <si>
-    <t>ASUS ROG STRIX Z690-A GAMING WIFI DDR4 - LGA1700</t>
-  </si>
-  <si>
-    <t>4,71108E+12</t>
-  </si>
-  <si>
-    <t>MSI B840M Gaming Plus WIFI6E</t>
-  </si>
-  <si>
-    <t>4,71138E+12</t>
-  </si>
-  <si>
-    <t>ASUS PRIME Z790M-PLUS DDR5 - LGA1700</t>
-  </si>
-  <si>
-    <t>MSI MAG X870E TOMAHAWK WIFI - AM5 - DDR5</t>
-  </si>
-  <si>
-    <t>MSI MPG X670E Carbon WIFI | AMD X670 - AM5</t>
-  </si>
-  <si>
-    <t>ASUS ROG STRIX X870-F GAMING WIFI - AM5 - DDR5</t>
+    <t>MSI B850 Gaming Plus Wifi PZ AM5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +187,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,9 +540,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -947,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A11F6D1-2D68-4DCD-BC3D-01E67281244E}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -972,169 +944,93 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>106569</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4719331859374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>107065</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4719331862213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>106995</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4719331866099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>107099</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4719331866433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>107015</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4711377290623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>107052</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4711377291927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
         <v>107162</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>107163</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>107096</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>106604</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>106734</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>106101</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>106662</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
+      <c r="C8" s="1">
+        <v>4711377365284</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>106098</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>106560</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>103162</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>107218</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>106616</v>
-      </c>
-      <c r="C13">
-        <v>4711387025741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>107052</v>
-      </c>
-      <c r="C14">
-        <v>4711377291927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>106248</v>
-      </c>
-      <c r="C15">
-        <v>4711377004879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>106690</v>
-      </c>
-      <c r="C16">
-        <v>4711387732045</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/input_csv/05_Mainboards/artikel.xlsx
+++ b/input_csv/05_Mainboards/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\05_Mainboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A249B3-99D8-40B9-932E-10AA137F4ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848AEDCB-5F2F-490D-913A-9E6A0FBFB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{717D53AB-BAAC-44F7-A093-03574B687F96}"/>
   </bookViews>
@@ -927,7 +927,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="56.140625" customWidth="1"/>
   </cols>

--- a/input_csv/05_Mainboards/artikel.xlsx
+++ b/input_csv/05_Mainboards/artikel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\05_Mainboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848AEDCB-5F2F-490D-913A-9E6A0FBFB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E44B97-9725-49A0-8E24-EA700FAB4688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{717D53AB-BAAC-44F7-A093-03574B687F96}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{717D53AB-BAAC-44F7-A093-03574B687F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainboards" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Artikelname</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>MSI B850 Gaming Plus Wifi PZ AM5</t>
+  </si>
+  <si>
+    <t>MSI PRO B850-P WIFI</t>
+  </si>
+  <si>
+    <t>Gigabyte X870 AORUS ELITE WF7 ICE - AM5 - DDR5</t>
+  </si>
+  <si>
+    <t>MSI MAG X870 TOMAHAWK WIFI - AM5 - DDR5</t>
+  </si>
+  <si>
+    <t>Gigabyte X870E AORUS ELITE WF7 - AM5 - DDR5</t>
+  </si>
+  <si>
+    <t>Gigabyte X870E AORUS PRO WF7 - AM5 - DDR5</t>
   </si>
 </sst>
 </file>
@@ -919,15 +934,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A11F6D1-2D68-4DCD-BC3D-01E67281244E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="56.140625" customWidth="1"/>
   </cols>
@@ -1021,16 +1036,59 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>106749</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4711377286046</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>106635</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4719331864682</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>106662</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4711377254557</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>106643</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4719331864613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>106642</v>
+      </c>
+      <c r="C13">
+        <v>4719331864866</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
